--- a/软件工程第五次作业/超凡家教组 软件工程作业 Scrum.xlsx
+++ b/软件工程第五次作业/超凡家教组 软件工程作业 Scrum.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xue Aiden\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DemoWarehouse\GitHome\Android-Project-Training\软件工程第五次作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D12596-D023-4794-B9D3-77A742B37E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB63C770-291F-433D-984D-B5097FBBD844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户类型" sheetId="5" r:id="rId1"/>
-    <sheet name="产品Blocklog" sheetId="1" r:id="rId2"/>
-    <sheet name="第一次迭代Blocklog" sheetId="2" r:id="rId3"/>
-    <sheet name="第二次迭代Blocklog" sheetId="4" r:id="rId4"/>
-    <sheet name="第三次迭代Blocklog" sheetId="3" r:id="rId5"/>
+    <sheet name="产品Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="第一次迭代Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="第二次迭代Backlog" sheetId="4" r:id="rId4"/>
+    <sheet name="第三次迭代Backlog" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -853,6 +853,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,21 +893,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1210,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1549,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1580,26 +1580,26 @@
       <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -1608,12 +1608,12 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1632,17 +1632,17 @@
         <v>6</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1660,11 +1660,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1682,11 +1682,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1704,11 +1704,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1726,11 +1726,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1780,11 +1780,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1802,11 +1802,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1824,11 +1824,11 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
@@ -1846,11 +1846,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1868,11 +1868,11 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1890,11 +1890,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1944,11 +1944,11 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1966,11 +1966,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1988,11 +1988,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="9" t="s">
         <v>67</v>
       </c>
@@ -2010,11 +2010,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
@@ -2033,6 +2033,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:E20"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A4:E8"/>
+    <mergeCell ref="A10:E15"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="D1:D2"/>
@@ -2043,11 +2048,6 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A17:E20"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A4:E8"/>
-    <mergeCell ref="A10:E15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,19 +2092,19 @@
       <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="31" t="s">
@@ -2118,7 +2118,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -2140,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
@@ -2531,6 +2531,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A4:E8"/>
     <mergeCell ref="A10:E14"/>
     <mergeCell ref="A16:E19"/>
     <mergeCell ref="A1:A2"/>
@@ -2539,11 +2544,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A4:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2557,8 +2557,8 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2588,19 +2588,19 @@
       <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="33" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="31" t="s">
@@ -2614,7 +2614,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="44"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
